--- a/excel.xlsx
+++ b/excel.xlsx
@@ -65,6 +65,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,15 +87,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,30 +105,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,19 +158,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -204,6 +197,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +218,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,157 +374,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,16 +413,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,26 +442,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,7 +512,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,130 +530,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,13 +978,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1020,37 +1020,37 @@
         <v>6969</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="5" spans="1:5">
+      <c r="A5">
         <v>24</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>213</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>12</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>24</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>53</v>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">Voltage </t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>vsef</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">am </t>
+  </si>
+  <si>
+    <t>adding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>line</t>
   </si>
 </sst>
 </file>
@@ -53,8 +71,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -65,6 +83,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -80,16 +120,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,24 +166,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,8 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,39 +220,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,25 +236,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -248,157 +404,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,6 +441,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,15 +495,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -492,11 +512,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,148 +530,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -978,13 +996,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
@@ -1052,6 +1070,26 @@
       </c>
       <c r="E5">
         <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -61,7 +61,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>line</t>
+    <t>liube</t>
   </si>
 </sst>
 </file>
@@ -69,8 +69,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -84,7 +84,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,31 +167,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,98 +222,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,187 +236,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,62 +427,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -510,11 +454,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,151 +516,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -999,7 +999,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">Voltage </t>
   </si>
@@ -31,6 +31,12 @@
     <t>Power F.</t>
   </si>
   <si>
+    <t>adding</t>
+  </si>
+  <si>
+    <t>a column</t>
+  </si>
+  <si>
     <t>line c</t>
   </si>
   <si>
@@ -50,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">am </t>
-  </si>
-  <si>
-    <t>adding</t>
   </si>
   <si>
     <t xml:space="preserve">a </t>
@@ -69,10 +72,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -84,7 +87,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,46 +156,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,24 +186,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +203,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -192,7 +210,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,21 +225,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,12 +239,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -254,169 +383,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,15 +430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -469,6 +463,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -480,6 +483,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,63 +530,52 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,97 +584,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -996,15 +999,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1019,6 +1022,12 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1040,19 +1049,19 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1074,22 +1083,22 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t xml:space="preserve">Voltage </t>
   </si>
@@ -37,6 +37,12 @@
     <t>a column</t>
   </si>
   <si>
+    <t xml:space="preserve">how </t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>line c</t>
   </si>
   <si>
@@ -52,6 +58,15 @@
     <t>vsef</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
     <t>i</t>
   </si>
   <si>
@@ -65,6 +80,9 @@
   </si>
   <si>
     <t>liube</t>
+  </si>
+  <si>
+    <t>take</t>
   </si>
 </sst>
 </file>
@@ -73,9 +91,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,6 +105,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -94,54 +134,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,6 +202,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -179,43 +219,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -239,187 +257,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,16 +452,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,8 +492,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -489,17 +518,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -508,16 +526,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,148 +551,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1002,7 +1020,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -1030,7 +1048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1046,25 +1064,36 @@
       <c r="E2">
         <v>6969</v>
       </c>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="3" spans="7:7">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>24</v>
       </c>
@@ -1080,25 +1109,36 @@
       <c r="E5">
         <v>53</v>
       </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="6" spans="7:7">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t xml:space="preserve">Voltage </t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>take</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>instant</t>
   </si>
 </sst>
 </file>
@@ -90,9 +96,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -104,20 +110,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -127,29 +119,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,7 +204,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,52 +226,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -233,16 +247,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,13 +263,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,169 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,25 +457,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -492,10 +485,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -526,6 +517,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -551,148 +557,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1139,6 +1145,17 @@
       </c>
       <c r="G7" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t xml:space="preserve">Voltage </t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>instant</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>latency</t>
   </si>
 </sst>
 </file>
@@ -96,10 +105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -110,6 +119,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -118,38 +157,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,6 +181,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -179,13 +196,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -204,9 +214,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -218,6 +228,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -226,15 +243,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,187 +272,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,13 +466,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,30 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -548,6 +546,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -557,148 +566,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1032,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
@@ -1156,6 +1165,17 @@
       </c>
       <c r="C8" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,101 +14,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
-  <si>
-    <t xml:space="preserve">Voltage </t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Angle</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Serial Number</t>
+  </si>
+  <si>
+    <t>Meter Type</t>
+  </si>
+  <si>
+    <t>Date and Time</t>
   </si>
   <si>
     <t>Frequency</t>
   </si>
   <si>
-    <t>Power F.</t>
-  </si>
-  <si>
-    <t>adding</t>
-  </si>
-  <si>
-    <t>a column</t>
-  </si>
-  <si>
-    <t xml:space="preserve">how </t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>line c</t>
-  </si>
-  <si>
-    <t>linve v</t>
-  </si>
-  <si>
-    <t>pf</t>
-  </si>
-  <si>
-    <t>sdf</t>
-  </si>
-  <si>
-    <t>vsef</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>does</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">am </t>
-  </si>
-  <si>
-    <t xml:space="preserve">a </t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>liube</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>is</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>testing</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>latency</t>
+    <t>Meter Temperature</t>
+  </si>
+  <si>
+    <t>XD578259</t>
+  </si>
+  <si>
+    <t>LT 3 Phase 4 Wire</t>
+  </si>
+  <si>
+    <t>L1-L2</t>
+  </si>
+  <si>
+    <t>L2-L3</t>
+  </si>
+  <si>
+    <t>L3-L1</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>Line Voltage</t>
+  </si>
+  <si>
+    <t>Phase Angle</t>
+  </si>
+  <si>
+    <t>Phase Voltage</t>
+  </si>
+  <si>
+    <t>Power Factor</t>
+  </si>
+  <si>
+    <t>Line Current</t>
+  </si>
+  <si>
+    <t>Active Power</t>
+  </si>
+  <si>
+    <t>Reactive Power</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -127,6 +98,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -135,25 +113,47 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,23 +212,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,28 +229,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,187 +243,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,11 +452,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +515,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,165 +534,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,150 +1004,191 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="9.66666666666667"/>
+    <col min="5" max="5" width="16.7777777777778"/>
+    <col min="7" max="7" width="9.66666666666667"/>
+    <col min="9" max="9" width="9.66666666666667"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1"/>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1"/>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1"/>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2"/>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2"/>
+      <c r="E2" s="1">
+        <v>45060.4859027778</v>
+      </c>
+      <c r="G2">
+        <v>49.878</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2">
-        <v>34</v>
-      </c>
-      <c r="C2">
-        <v>78</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-      <c r="E2">
-        <v>6969</v>
-      </c>
-      <c r="G2" t="s">
+    <row r="4" spans="3:9">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="3" spans="7:7">
-      <c r="G3" t="s">
-        <v>8</v>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6"/>
+      <c r="C6">
+        <v>419.8292</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6">
+        <v>414.1567</v>
+      </c>
+      <c r="G6">
+        <v>413.8338</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B8"/>
+      <c r="C8">
+        <v>238.8739</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8">
+        <v>240.6921</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8">
+        <v>240.4449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C10">
+        <v>240.0422</v>
+      </c>
+      <c r="E10">
+        <v>241.5203</v>
+      </c>
+      <c r="G10">
+        <v>238.8846</v>
+      </c>
+      <c r="I10">
+        <v>240.1491</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
+      <c r="B12"/>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>213</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>53</v>
-      </c>
-      <c r="G5" t="s">
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="C14">
+        <v>0.03</v>
+      </c>
+      <c r="E14">
+        <v>0.012</v>
+      </c>
+      <c r="G14">
+        <v>0.046</v>
+      </c>
+      <c r="I14">
+        <v>0.052</v>
+      </c>
     </row>
-    <row r="6" spans="7:7">
-      <c r="G6" t="s">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="C16">
+        <v>-0.003</v>
+      </c>
+      <c r="E16">
+        <v>0.002</v>
+      </c>
+      <c r="G16">
+        <v>-0.001</v>
+      </c>
+      <c r="I16">
+        <v>-0.003</v>
+      </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
+      <c r="C18">
+        <v>0.006</v>
+      </c>
+      <c r="E18">
+        <v>0.002</v>
+      </c>
+      <c r="G18">
+        <v>0.01</v>
+      </c>
+      <c r="I18">
+        <v>0.019</v>
       </c>
     </row>
   </sheetData>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Serial Number</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>LT 3 Phase 4 Wire</t>
+  </si>
+  <si>
+    <t>14-05-2023 11:30:00'</t>
   </si>
   <si>
     <t>L1-L2</t>
@@ -75,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="dd/mm/yyyy\ hh:mm"/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="dd/mm/yyyy\ hh:mm"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -98,68 +101,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +154,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -212,6 +200,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -221,14 +231,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,25 +246,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,151 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,32 +440,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +485,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -524,167 +523,171 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1004,10 +1007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1022,15 +1025,12 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1"/>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1"/>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1"/>
       <c r="G1" t="s">
         <v>3</v>
       </c>
@@ -1038,156 +1038,147 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2"/>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2"/>
-      <c r="E2" s="1">
-        <v>45060.4859027778</v>
-      </c>
-      <c r="G2">
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>49.878</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="3:9">
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4"/>
-      <c r="E4" t="s">
+    <row r="5" spans="3:9">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E5" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="G5" t="s">
         <v>10</v>
       </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6"/>
-      <c r="C6">
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
         <v>419.8292</v>
       </c>
-      <c r="D6"/>
-      <c r="E6">
+      <c r="E7">
         <v>414.1567</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>413.8338</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8"/>
-      <c r="C8">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>238.8739</v>
       </c>
-      <c r="D8"/>
-      <c r="E8">
+      <c r="E9">
         <v>240.6921</v>
       </c>
-      <c r="F8"/>
-      <c r="G8">
+      <c r="G9">
         <v>240.4449</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
         <v>240.0422</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>241.5203</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>238.8846</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>240.1491</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
-      <c r="C12">
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>1</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15">
         <v>0.03</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>0.012</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>0.046</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>0.052</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
         <v>-0.003</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>0.002</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>-0.001</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>-0.003</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>0.006</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>0.002</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>0.01</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>0.019</v>
       </c>
     </row>

--- a/excel.xlsx
+++ b/excel.xlsx
@@ -37,7 +37,7 @@
     <t>LT 3 Phase 4 Wire</t>
   </si>
   <si>
-    <t>14-05-2023 11:30:00'</t>
+    <t>14-05-23 11:30:00"</t>
   </si>
   <si>
     <t>L1-L2</t>
@@ -78,11 +78,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="dd/mm/yyyy\ hh:mm"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,12 +94,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,9 +130,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,30 +155,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,28 +185,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -200,30 +208,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,6 +440,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -447,15 +462,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,21 +491,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -523,6 +514,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,154 +540,154 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
